--- a/Data Cleaning Excel_(US President Data).xlsx
+++ b/Data Cleaning Excel_(US President Data).xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Excel Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAD1871D-55D2-463B-980B-C7586F5EE418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33612EE5-58AC-4B69-AC36-004ABFECFFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="US_Presidents Excel Tutorial Da" sheetId="1" r:id="rId1"/>
+    <sheet name="US_Presidents clean data" sheetId="1" r:id="rId1"/>
+    <sheet name="raw data " sheetId="2" r:id="rId2"/>
+    <sheet name="project comment" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US_Presidents Excel Tutorial Da'!$A$1:$G$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US_Presidents clean data'!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="143">
   <si>
     <t>S.No.</t>
   </si>
@@ -287,12 +289,193 @@
   </si>
   <si>
     <t>William Mckinley</t>
+  </si>
+  <si>
+    <t>prior</t>
+  </si>
+  <si>
+    <t>Commander-in-Chief  of the  Continental Army   ( 1775â€“1783 )</t>
+  </si>
+  <si>
+    <t>john adams</t>
+  </si>
+  <si>
+    <t>1st  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>2nd  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Democratic-  Republican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Aaron Burr</t>
+  </si>
+  <si>
+    <t>5th  United States Secretary of State   (1801â€“1809)</t>
+  </si>
+  <si>
+    <t>George    Clinton</t>
+  </si>
+  <si>
+    <t>JAMES MONROE</t>
+  </si>
+  <si>
+    <t>7th  United States Secretary of State   (1811â€“1817)</t>
+  </si>
+  <si>
+    <t>8th  United States Secretary of State   (1817â€“1825)</t>
+  </si>
+  <si>
+    <t>U.S. Senator   ( Class 2 )   from  Tennessee   (1823â€“1825)</t>
+  </si>
+  <si>
+    <t>John C.     Calhoun</t>
+  </si>
+  <si>
+    <t>8th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>United States Minister to Colombia   (1828â€“1829)</t>
+  </si>
+  <si>
+    <t>john tyler</t>
+  </si>
+  <si>
+    <t>10th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Whig   April 4, 1841  â€“  September 13, 1841</t>
+  </si>
+  <si>
+    <t>9th  Governor of Tennessee   (1839â€“1841)</t>
+  </si>
+  <si>
+    <t>George         M. Dallas</t>
+  </si>
+  <si>
+    <t>Major General  of the  1st Infantry Regiment   United States Army   (1846â€“1849)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Millard Fillmore</t>
+  </si>
+  <si>
+    <t>12th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Brigadier General  of the  9th Infantry   United States Army   (1847â€“1848)</t>
+  </si>
+  <si>
+    <t>United States Minister  to the   Court of St James's   (1853â€“1856)</t>
+  </si>
+  <si>
+    <t>U.S. Representative  for  Illinois' 7th District   (1847â€“1849)</t>
+  </si>
+  <si>
+    <t>16th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Commanding General  of the U.S. Army   ( 1864â€“1869 )</t>
+  </si>
+  <si>
+    <t>29th &amp; 32nd  Governor of Ohio   (1868â€“1872 &amp; 1876â€“1877)</t>
+  </si>
+  <si>
+    <t>U.S. Representative  for  Ohio's 19th District   (1863â€“1881)</t>
+  </si>
+  <si>
+    <t>20th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>28th  Governor of New York   (1883â€“1885)</t>
+  </si>
+  <si>
+    <t>U.S. Senator   ( Class 1 )   from  Indiana   (1881â€“1887)</t>
+  </si>
+  <si>
+    <t>22nd  President of the United States   (1885â€“1889)</t>
+  </si>
+  <si>
+    <t>William McKinley</t>
+  </si>
+  <si>
+    <t>39th  Governor of Ohio   (1892â€“1896)</t>
+  </si>
+  <si>
+    <t>25th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>42nd  United States Secretary of War   (1904â€“1908)</t>
+  </si>
+  <si>
+    <t>34th  Governor of New Jersey   (1911â€“1913)</t>
+  </si>
+  <si>
+    <t>Demorcatic</t>
+  </si>
+  <si>
+    <t>U.S. Senator   ( Class 3 )   from  Ohio   (1915â€“1921)</t>
+  </si>
+  <si>
+    <t>29th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>3rd  United States Secretary of Commerce   (1921â€“1928)</t>
+  </si>
+  <si>
+    <t>44th  Governor of New York   ( 1929â€“1932 )</t>
+  </si>
+  <si>
+    <t>34th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Supreme Allied Commander Europe   ( 1949â€“1952 )</t>
+  </si>
+  <si>
+    <t>U.S. Senator   ( Class 1 )   from  Massachusetts   (1953â€“1960)</t>
+  </si>
+  <si>
+    <t>37th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>36th  Vice President of the United States   (1953â€“1961)</t>
+  </si>
+  <si>
+    <t>40th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>76th  Governor of Georgia   (1971â€“1975)</t>
+  </si>
+  <si>
+    <t>33rd  Governor of California   ( 1967â€“1975 )</t>
+  </si>
+  <si>
+    <t>43rd  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>40th &amp; 42nd  Governor of Arkansas   (1979â€“1981 &amp; 1983â€“1992)</t>
+  </si>
+  <si>
+    <t>46th  Governor of Texas   ( 1995â€“2000 )</t>
+  </si>
+  <si>
+    <t>U.S. Senator   ( Class 3 )   from  Illinois   ( 2005â€“2008 )</t>
+  </si>
+  <si>
+    <t>Chairman of   The Trump Organization   ( 1971â€“present )</t>
+  </si>
+  <si>
+    <t>Republicans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -776,10 +959,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -836,6 +1024,155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83613A00-03DA-7654-9548-336A6F834324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="61913"/>
+          <a:ext cx="6148388" cy="2881312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" b="1"/>
+            <a:t>Excel Data Cleaning Project Summary</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>In this project, I focused on cleaning and standardising data to prepare it for analysis. Key steps included:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Removing duplicates for unique entries.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Formatting names using the PROPER() function.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Eliminating blank rows and trimming unnecessary spaces with TRIM().</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Deleting irrelevant columns.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Converting dates to a consistent format.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>This streamlined the dataset, ensuring it was accurate and ready for analysis. It demonstrates my ability to use Excel’s tools effectively for data cleaning.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2236,4 +2573,1435 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26043B71-A96E-48EF-809C-A3BD2F8BEBEE}">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I2" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I3" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I4" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="7">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I5" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I6" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I7" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="7">
+        <v>35000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I8" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I9" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7">
+        <v>45000</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I10" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I11" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="7">
+        <v>55000</v>
+      </c>
+      <c r="H12" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I12" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="7">
+        <v>60000</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I13" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7">
+        <v>65000</v>
+      </c>
+      <c r="H14" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I14" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="7">
+        <v>75000</v>
+      </c>
+      <c r="H15" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I15" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="7">
+        <v>85000</v>
+      </c>
+      <c r="H16" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I16" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7">
+        <v>95000</v>
+      </c>
+      <c r="H17" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I17" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7">
+        <v>105000</v>
+      </c>
+      <c r="H18" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I18" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7">
+        <v>115000</v>
+      </c>
+      <c r="H19" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I19" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="7">
+        <v>125000</v>
+      </c>
+      <c r="H20" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I20" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="7">
+        <v>135000</v>
+      </c>
+      <c r="H21" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I21" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7">
+        <v>145000</v>
+      </c>
+      <c r="H22" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I22" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7">
+        <v>155000</v>
+      </c>
+      <c r="H23" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I23" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="7">
+        <v>165000</v>
+      </c>
+      <c r="H24" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I24" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7">
+        <v>175000</v>
+      </c>
+      <c r="H25" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I25" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7">
+        <v>185000</v>
+      </c>
+      <c r="H26" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I26" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7">
+        <v>195000</v>
+      </c>
+      <c r="H27" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I27" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7">
+        <v>205000</v>
+      </c>
+      <c r="H28" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I28" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="7">
+        <v>225000</v>
+      </c>
+      <c r="H29" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I29" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="7">
+        <v>225000</v>
+      </c>
+      <c r="H30" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I30" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="7">
+        <v>235000</v>
+      </c>
+      <c r="H31" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I31" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="7">
+        <v>245000</v>
+      </c>
+      <c r="H32" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I32" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="7">
+        <v>255000</v>
+      </c>
+      <c r="H33" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I33" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="7">
+        <v>265000</v>
+      </c>
+      <c r="H34" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I34" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="7">
+        <v>275000</v>
+      </c>
+      <c r="H35" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I35" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="7">
+        <v>285000</v>
+      </c>
+      <c r="H36" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I36" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="7">
+        <v>295000</v>
+      </c>
+      <c r="H37" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I37" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="7">
+        <v>305000</v>
+      </c>
+      <c r="H38" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I38" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="7">
+        <v>315000</v>
+      </c>
+      <c r="H39" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I39" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="7">
+        <v>325000</v>
+      </c>
+      <c r="H40" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I40" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="7">
+        <v>335000</v>
+      </c>
+      <c r="H41" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I41" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="7">
+        <v>345000</v>
+      </c>
+      <c r="H42" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I42" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="7">
+        <v>355000</v>
+      </c>
+      <c r="H43" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I43" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="7">
+        <v>365000</v>
+      </c>
+      <c r="H44" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I44" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="7">
+        <v>375000</v>
+      </c>
+      <c r="H45" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I45" s="4">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="7">
+        <v>395000</v>
+      </c>
+      <c r="H46" s="5">
+        <v>44391</v>
+      </c>
+      <c r="I46" s="5">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="3">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="7">
+        <v>395000</v>
+      </c>
+      <c r="H47" s="5">
+        <v>44391</v>
+      </c>
+      <c r="I47" s="5">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="3">
+        <v>44</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="7">
+        <v>405000</v>
+      </c>
+      <c r="H48" s="5">
+        <v>44391</v>
+      </c>
+      <c r="I48" s="5">
+        <v>43862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059EF6AD-A35E-4D13-9EAE-270A4AF2EF28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>